--- a/Database/Cornestean/Saptamana 30.xlsx
+++ b/Database/Cornestean/Saptamana 30.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mihai\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mihai\Desktop\Repository Practica\Practica_covid19_UTCN\Database\Cornestean\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED8DA927-722B-4E5F-99B2-52A524980703}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45E102AE-3F23-483D-B30E-33449D97B0DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{94B9CCAA-27E5-46B4-AAF5-F7F1D037EE5E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{94B9CCAA-27E5-46B4-AAF5-F7F1D037EE5E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="76">
   <si>
     <t>Nr. Crt.</t>
   </si>
@@ -195,6 +196,72 @@
   </si>
   <si>
     <t>ascendent</t>
+  </si>
+  <si>
+    <t>Caracteristicile cazurilor confirmate si a deceselor</t>
+  </si>
+  <si>
+    <t>Cazuri</t>
+  </si>
+  <si>
+    <t>Numar</t>
+  </si>
+  <si>
+    <t>Procentaj</t>
+  </si>
+  <si>
+    <t>Varsta,mediana(range)</t>
+  </si>
+  <si>
+    <t>Sex,masculin</t>
+  </si>
+  <si>
+    <t>Import</t>
+  </si>
+  <si>
+    <t>Vindecati</t>
+  </si>
+  <si>
+    <t>Personal sanitar</t>
+  </si>
+  <si>
+    <t>Afectiuni cardiovasculare</t>
+  </si>
+  <si>
+    <t>Diabet</t>
+  </si>
+  <si>
+    <t>Afectiuni renale</t>
+  </si>
+  <si>
+    <t>Obezitate</t>
+  </si>
+  <si>
+    <t>Afectiuni Pulmonare</t>
+  </si>
+  <si>
+    <t>Neoplasm</t>
+  </si>
+  <si>
+    <t>Altele</t>
+  </si>
+  <si>
+    <t>48(0-99)</t>
+  </si>
+  <si>
+    <t>69(20-99)</t>
+  </si>
+  <si>
+    <t>Afectiuni neurologice</t>
+  </si>
+  <si>
+    <t>94.8% din decese aveau comorbiditati asociate</t>
+  </si>
+  <si>
+    <t>76.6% din decese au fost persoane de peste 60 ani</t>
+  </si>
+  <si>
+    <t>59% din decese au fost barbati</t>
   </si>
 </sst>
 </file>
@@ -244,7 +311,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -258,6 +325,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -572,10 +643,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{726283BE-C68C-4663-82B4-AF2EA6B93A9E}">
-  <dimension ref="A1:G46"/>
+  <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -585,24 +656,25 @@
     <col min="5" max="5" width="18.5703125" customWidth="1"/>
     <col min="6" max="6" width="19.140625" customWidth="1"/>
     <col min="7" max="7" width="32.28515625" customWidth="1"/>
+    <col min="9" max="9" width="45.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2" t="s">
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2" t="s">
+      <c r="F1" s="5"/>
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -621,9 +693,12 @@
       <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G2" s="5"/>
+      <c r="I2" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -645,8 +720,11 @@
       <c r="G3" s="3" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I3" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -668,8 +746,11 @@
       <c r="G4" s="4" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I4" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -692,7 +773,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -715,7 +796,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -738,7 +819,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -761,7 +842,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -784,7 +865,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -807,7 +888,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -830,7 +911,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -853,7 +934,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -876,7 +957,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -899,7 +980,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -922,7 +1003,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1619,8 +1700,12 @@
       <c r="D46" s="1">
         <v>2432</v>
       </c>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
+      <c r="E46" s="1">
+        <v>9817</v>
+      </c>
+      <c r="F46" s="1">
+        <v>226</v>
+      </c>
       <c r="G46" s="1"/>
     </row>
   </sheetData>
@@ -1632,4 +1717,244 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4A9BA05-C838-44CB-9B4F-962280DE05BF}">
+  <dimension ref="A1:Q6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.7109375" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" customWidth="1"/>
+    <col min="7" max="7" width="21.28515625" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" customWidth="1"/>
+    <col min="9" max="9" width="23" customWidth="1"/>
+    <col min="11" max="11" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" customWidth="1"/>
+    <col min="14" max="14" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="6"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="B3" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="2"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="B4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="2">
+        <v>24789</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1077</v>
+      </c>
+      <c r="E5" s="2">
+        <v>32557</v>
+      </c>
+      <c r="F5" s="2">
+        <v>3849</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H5" s="2">
+        <v>1441</v>
+      </c>
+      <c r="I5" s="2">
+        <v>1644</v>
+      </c>
+      <c r="J5" s="2">
+        <v>781</v>
+      </c>
+      <c r="K5" s="2">
+        <v>547</v>
+      </c>
+      <c r="L5" s="2">
+        <v>495</v>
+      </c>
+      <c r="M5" s="2">
+        <v>453</v>
+      </c>
+      <c r="N5" s="2">
+        <v>397</v>
+      </c>
+      <c r="O5" s="2">
+        <v>283</v>
+      </c>
+      <c r="P5" s="2">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2">
+        <v>45.9</v>
+      </c>
+      <c r="D6" s="2">
+        <v>2</v>
+      </c>
+      <c r="E6" s="2">
+        <v>60.3</v>
+      </c>
+      <c r="F6" s="2">
+        <v>7.1</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2">
+        <v>59.3</v>
+      </c>
+      <c r="I6" s="2">
+        <v>67.599999999999994</v>
+      </c>
+      <c r="J6" s="2">
+        <v>32.1</v>
+      </c>
+      <c r="K6" s="2">
+        <v>22.5</v>
+      </c>
+      <c r="L6" s="2">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="M6" s="2">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="N6" s="2">
+        <v>16.3</v>
+      </c>
+      <c r="O6" s="2">
+        <v>11.6</v>
+      </c>
+      <c r="P6" s="2">
+        <v>19.7</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="G3:P3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
 </file>